--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_21-07.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_21-07.xlsx
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
+  </si>
+  <si>
+    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
   </si>
   <si>
     <t>REPAION-N GEL 50 GM</t>
@@ -3211,17 +3214,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3243,7 +3246,7 @@
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
@@ -3263,13 +3266,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
@@ -3289,13 +3292,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
@@ -3315,13 +3318,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
@@ -3341,13 +3344,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
@@ -3367,13 +3370,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
@@ -3393,17 +3396,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3411,7 +3414,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3419,17 +3422,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>134.40000000000001</v>
+        <v>26</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>4</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3445,17 +3448,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>60</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3471,13 +3474,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
@@ -3497,13 +3500,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
@@ -3523,13 +3526,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
@@ -3541,7 +3544,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3549,13 +3552,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
@@ -3581,11 +3584,11 @@
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3601,17 +3604,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3627,17 +3630,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>74.689999999999998</v>
+        <v>168</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>0.20000000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3653,17 +3656,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>128</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3679,17 +3682,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3705,17 +3708,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3731,17 +3734,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>24.960000000000001</v>
+        <v>18</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3757,17 +3760,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>17</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3783,17 +3786,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3801,7 +3804,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3809,17 +3812,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3835,13 +3838,13 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>102.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
@@ -3861,17 +3864,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>168</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3887,17 +3890,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3905,7 +3908,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3913,13 +3916,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
@@ -3939,13 +3942,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
@@ -3965,17 +3968,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>98.400000000000006</v>
+        <v>30</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -3983,7 +3986,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3991,17 +3994,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>20</v>
+        <v>98.400000000000006</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4009,7 +4012,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4017,13 +4020,13 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
@@ -4043,17 +4046,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4061,7 +4064,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4069,17 +4072,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4095,17 +4098,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4113,7 +4116,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4121,17 +4124,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4147,13 +4150,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
@@ -4173,13 +4176,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
@@ -4199,13 +4202,13 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
@@ -4225,17 +4228,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4251,17 +4254,17 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1">
@@ -4269,7 +4272,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4277,17 +4280,17 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4303,17 +4306,17 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
@@ -4329,13 +4332,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10">
@@ -4347,7 +4350,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4355,13 +4358,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10">
@@ -4381,51 +4384,77 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="K131" s="11">
-        <v>7297.9399999999996</v>
-      </c>
-      <c r="L131" s="11"/>
-      <c r="M131" s="11"/>
-      <c r="N131" s="11"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="12">
+    <row r="131" ht="24.75" customHeight="1">
+      <c r="A131" s="6">
+        <v>128</v>
+      </c>
+      <c t="s" r="B131" s="7">
         <v>167</v>
       </c>
-      <c r="B132" s="12"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c t="s" r="F132" s="13">
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c t="s" r="H131" s="8">
+        <v>53</v>
+      </c>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="9">
+        <v>30</v>
+      </c>
+      <c r="M131" s="9"/>
+      <c r="N131" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" ht="26.25" customHeight="1">
+      <c r="K132" s="11">
+        <v>7359.9399999999996</v>
+      </c>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="12">
         <v>168</v>
       </c>
-      <c r="G132" s="13"/>
-      <c r="H132" s="14"/>
-      <c t="s" r="I132" s="15">
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c t="s" r="F133" s="13">
         <v>169</v>
       </c>
-      <c r="J132" s="15"/>
-      <c r="K132" s="15"/>
-      <c r="L132" s="15"/>
-      <c r="M132" s="15"/>
-      <c r="N132" s="15"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="14"/>
+      <c t="s" r="I133" s="15">
+        <v>170</v>
+      </c>
+      <c r="J133" s="15"/>
+      <c r="K133" s="15"/>
+      <c r="L133" s="15"/>
+      <c r="M133" s="15"/>
+      <c r="N133" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="395">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4814,10 +4843,13 @@
     <mergeCell ref="B130:G130"/>
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
-    <mergeCell ref="K131:N131"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="I132:N132"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="K132:N132"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="I133:N133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
